--- a/paghospital/pruebas.xlsx
+++ b/paghospital/pruebas.xlsx
@@ -11,106 +11,238 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+  <si>
+    <t>identificador</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Requerimientos</t>
+  </si>
+  <si>
+    <t>prosedimiento</t>
+  </si>
+  <si>
+    <t>datos esperados</t>
+  </si>
+  <si>
+    <t>resultado optenido</t>
+  </si>
+  <si>
+    <t>hospital-001</t>
+  </si>
+  <si>
+    <t>pestaña de Covid-19</t>
+  </si>
+  <si>
+    <t>pagina principal del hospital</t>
+  </si>
+  <si>
+    <t>presionar el boton de Covid</t>
+  </si>
+  <si>
+    <t>que se habra la pestaña de covid-19</t>
+  </si>
+  <si>
+    <t>exitoso</t>
+  </si>
+  <si>
+    <t>hospital-002</t>
+  </si>
+  <si>
+    <t>pestaña de Hospitales y Centros</t>
+  </si>
+  <si>
+    <t>presionar el boton de hospital y sentros</t>
+  </si>
+  <si>
+    <t>que se habra la pestaña de hospitales y centros</t>
+  </si>
+  <si>
+    <t>hospital-003</t>
+  </si>
+  <si>
+    <t>pestaña de seguros</t>
+  </si>
+  <si>
+    <t>presionar el boton de seguros</t>
+  </si>
+  <si>
+    <t>que se habra la pestaña la pestañade pagina principal</t>
+  </si>
+  <si>
+    <t>hospital-004</t>
+  </si>
+  <si>
+    <t>despliege de menu especalidades</t>
+  </si>
+  <si>
+    <t>desplasar el raton sobre la palabra especialidades</t>
+  </si>
+  <si>
+    <t>que se depliege el menu de especialidades</t>
+  </si>
+  <si>
+    <t>hospital-005</t>
+  </si>
+  <si>
+    <t>pestaña de especialidad 1</t>
+  </si>
+  <si>
+    <t>presionar el boton de especialidad1</t>
+  </si>
+  <si>
+    <t>que se habra la pestaña de especialidad 1</t>
+  </si>
+  <si>
+    <t>hospital-006</t>
+  </si>
+  <si>
+    <t>pestaña de especialidad 2</t>
+  </si>
+  <si>
+    <t>presionar el boton de especialidad2</t>
+  </si>
+  <si>
+    <t>que se habra la pestaña de especialidad 2</t>
+  </si>
+  <si>
+    <t>hospital-007</t>
+  </si>
+  <si>
+    <t>pestaña de especialidad 3</t>
+  </si>
+  <si>
+    <t>presionar el boton de especialidad3</t>
+  </si>
+  <si>
+    <t>que se habra la pestaña de especialidad 3</t>
+  </si>
+  <si>
+    <t>hospital-008</t>
+  </si>
+  <si>
+    <t>pestaña de internados</t>
+  </si>
+  <si>
+    <t>presionar el boton de internados</t>
+  </si>
+  <si>
+    <t>que se habra la pestaña de internados</t>
+  </si>
+  <si>
+    <t>hospital-009</t>
+  </si>
+  <si>
+    <t>inicio de secion corecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pagina principal del hospital                           conoser el coreo y contraseña </t>
+  </si>
+  <si>
+    <t>ingresar a la pagina prinsipal del hospital y tener una cuenta</t>
+  </si>
+  <si>
+    <t>aparecera el nombre del usuario</t>
+  </si>
+  <si>
+    <t>hospital-010</t>
+  </si>
+  <si>
+    <t>iinicio de secion incorecto</t>
+  </si>
+  <si>
+    <t>estar en la pagina principal y dar click e iniciar sesion y no contar con una cuenta</t>
+  </si>
+  <si>
+    <t>mostrar mensaje de error</t>
+  </si>
+  <si>
+    <t>hospital-011</t>
+  </si>
+  <si>
+    <t>mostrar menu de inicio</t>
+  </si>
+  <si>
+    <t>dar click en el boron de inicio</t>
+  </si>
+  <si>
+    <t>mostrar menu de inicio de sesion</t>
+  </si>
+  <si>
+    <t>hospital-012</t>
+  </si>
+  <si>
+    <t>buscar un servicio</t>
+  </si>
   <si>
     <t>pagina principal</t>
   </si>
   <si>
-    <t>cosas nesesarias</t>
-  </si>
-  <si>
-    <t>datos esperados</t>
-  </si>
-  <si>
-    <t>funciona</t>
-  </si>
-  <si>
-    <t>pestaña de Covid-19</t>
-  </si>
-  <si>
-    <t>pagina principal del hospital</t>
-  </si>
-  <si>
-    <t>que se habra la pestaña de covid-19</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>pestaña de Hospitales y Centros</t>
-  </si>
-  <si>
-    <t>que se habra la pestaña de hospitales y centros</t>
-  </si>
-  <si>
-    <t>pestaña de seguros</t>
-  </si>
-  <si>
-    <t>que se habra la pestaña la pestañade pagina principal</t>
-  </si>
-  <si>
-    <t>despliege de menu especalidades</t>
-  </si>
-  <si>
-    <t>que se depliege el menu de especialidades</t>
-  </si>
-  <si>
-    <t>pestaña de especialidad 1</t>
-  </si>
-  <si>
-    <t>que se habra la pestaña de especialidad 1</t>
-  </si>
-  <si>
-    <t>pestaña de especialidad 2</t>
-  </si>
-  <si>
-    <t>que se habra la pestaña de especialidad 2</t>
-  </si>
-  <si>
-    <t>pestaña de especialidad 3</t>
-  </si>
-  <si>
-    <t>que se habra la pestaña de especialidad 3</t>
-  </si>
-  <si>
-    <t>pestaña de internados</t>
-  </si>
-  <si>
-    <t>que se habra la pestaña de internados</t>
-  </si>
-  <si>
-    <t>inicio de secion corecto</t>
-  </si>
-  <si>
-    <t>ingresar a la pagina prinsipal del hospital y tener una cuenta</t>
-  </si>
-  <si>
-    <t>aparecera el nombre del usuario</t>
-  </si>
-  <si>
-    <t>iinicio de secion incorecto</t>
-  </si>
-  <si>
-    <t>estar en la pagina principal y dar click e iniciar sesion y no contar con una cuenta</t>
-  </si>
-  <si>
-    <t>mostrar mensaje de error</t>
-  </si>
-  <si>
-    <t>mostrar menu de inicio</t>
-  </si>
-  <si>
-    <t>dar click en el boron de inicio</t>
-  </si>
-  <si>
-    <t>mostrar menu de inicio de sesion</t>
+    <t>escribir el servicio y presonar buscar</t>
+  </si>
+  <si>
+    <t>abrir ventana con el servicio que busca</t>
+  </si>
+  <si>
+    <t>hospital-013</t>
+  </si>
+  <si>
+    <t>comunicate con nosotros</t>
+  </si>
+  <si>
+    <t>llenar el formulario precionar terminos y condiciones y presionar enviar</t>
+  </si>
+  <si>
+    <t>Que se envien la informacion y se agende la cita</t>
+  </si>
+  <si>
+    <t>hospital-014</t>
+  </si>
+  <si>
+    <t>suscribete</t>
+  </si>
+  <si>
+    <t>llenar todo el formulario completo y presionar suscribirse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">que se envien la infromacion de la subscripcion </t>
+  </si>
+  <si>
+    <t>hospital-015</t>
+  </si>
+  <si>
+    <t>error de suscribete</t>
+  </si>
+  <si>
+    <t>pagina principal del hospital y ni tener el formlario lleno al presionar subscribete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  no se envia la informacion</t>
+  </si>
+  <si>
+    <t>hospital-016</t>
+  </si>
+  <si>
+    <t>resaltar los votones</t>
+  </si>
+  <si>
+    <t>pagina principal de hospital</t>
+  </si>
+  <si>
+    <t>colocar el raton sobre los botones</t>
+  </si>
+  <si>
+    <t>resaltar los botones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -127,6 +259,10 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -167,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -189,14 +325,26 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -204,9 +352,6 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -215,6 +360,15 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -435,9 +589,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.71"/>
-    <col customWidth="1" min="2" max="2" width="35.0"/>
-    <col customWidth="1" min="3" max="3" width="40.86"/>
+    <col customWidth="1" min="1" max="2" width="29.71"/>
+    <col customWidth="1" min="3" max="3" width="35.0"/>
+    <col customWidth="1" min="4" max="5" width="40.86"/>
+    <col customWidth="1" min="6" max="6" width="25.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1">
@@ -453,235 +608,385 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="51.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" ht="51.0" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" ht="51.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" ht="51.0" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" ht="51.0" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" ht="51.0" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" ht="51.0" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="A8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" ht="51.0" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="A9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" ht="51.0" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" ht="51.0" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="A11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" ht="51.0" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="A12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" ht="51.0" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" ht="51.0" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" ht="51.0" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" ht="51.0" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" ht="51.0" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" ht="51.0" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" ht="51.0" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" ht="51.0" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" ht="51.0" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2"/>
@@ -689,6 +994,8 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2"/>
@@ -696,6 +1003,8 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2"/>
@@ -703,6 +1012,8 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2"/>
@@ -710,6 +1021,8 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2"/>
@@ -717,6 +1030,8 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2"/>
@@ -724,6 +1039,8 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2"/>
@@ -731,6 +1048,8 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2"/>
@@ -738,6 +1057,8 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2"/>
@@ -745,6 +1066,8 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2"/>
@@ -752,6 +1075,8 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2"/>
@@ -759,6 +1084,17 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
